--- a/src/analises/result/excel/mefs_reais/fsm_real-time.xlsx
+++ b/src/analises/result/excel/mefs_reais/fsm_real-time.xlsx
@@ -1,61 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_reais/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE65F8FE-8DF3-BE40-89A9-61CAF9909C49}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F46706-11DF-1542-A6DA-47683F4C0400}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1140" windowWidth="23100" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4120" yWindow="640" windowWidth="30740" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">time!$L$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">time!$L$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">time!$M$1:$T$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">time!$M$2:$T$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">time!$M$3:$T$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">time!$L$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">time!$L$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">time!$M$1:$T$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">time!$M$2:$T$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">time!$M$3:$T$3</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">time!$M$26</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">time!$M$27</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">time!$M$28</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">time!$M$29</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">time!$N$25:$O$25</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">time!$N$26:$O$26</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">time!$N$27:$O$27</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">time!$N$28:$O$28</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">time!$N$29:$O$29</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>Folder</t>
   </si>
   <si>
     <t>File</t>
-  </si>
-  <si>
-    <t>Breadth All-trans</t>
-  </si>
-  <si>
-    <t>Breadth All-transpair</t>
-  </si>
-  <si>
-    <t>Depth All-trans</t>
-  </si>
-  <si>
-    <t>Depth All-transpair</t>
-  </si>
-  <si>
-    <t>Euler All-trans</t>
-  </si>
-  <si>
-    <t>Euler All-transpair</t>
   </si>
   <si>
     <t>CPP All-trans</t>
@@ -70,22 +54,40 @@
     <t>swpdc</t>
   </si>
   <si>
-    <t>BFS All-trans</t>
+    <t>HSC alltrans</t>
+  </si>
+  <si>
+    <t>DFS All-transpair</t>
+  </si>
+  <si>
+    <t>DFS All-trans</t>
   </si>
   <si>
     <t>BFS All-transpair</t>
   </si>
   <si>
-    <t>DFS All-trans</t>
+    <t>BFS All-trans</t>
   </si>
   <si>
-    <t>DFS All-transpair</t>
+    <t>HSC All-transpair</t>
   </si>
   <si>
-    <t>H-Switch Cover All-trans</t>
+    <t>BFS</t>
   </si>
   <si>
-    <t>H-Switch Cover All-transpair</t>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>HSC</t>
+  </si>
+  <si>
+    <t>CPP</t>
+  </si>
+  <si>
+    <t>APEX</t>
+  </si>
+  <si>
+    <t>SWPDC</t>
   </si>
 </sst>
 </file>
@@ -651,7 +653,64 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>All-transition-pairs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24598651461670742"/>
+          <c:y val="2.0689655172413793E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -663,108 +722,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>time!$L$2</c:f>
+              <c:f>time!$M$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>apex</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>time!$M$1:$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>BFS All-trans</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BFS All-transpair</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DFS All-trans</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DFS All-transpair</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>H-Switch Cover All-trans</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>H-Switch Cover All-transpair</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CPP All-trans</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CPP All-transpair</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>time!$M$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1186</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3457</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>409</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-57F0-1548-87FC-CF465FA805E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>time!$L$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>swpdc</c:v>
+                  <c:v>BFS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -773,7 +735,7 @@
             <a:solidFill>
               <a:srgbClr val="C00000"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="38100">
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
@@ -783,64 +745,205 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>time!$M$1:$T$1</c:f>
+              <c:f>time!$N$25:$O$25</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>BFS All-trans</c:v>
+                  <c:v>APEX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BFS All-transpair</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DFS All-trans</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DFS All-transpair</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>H-Switch Cover All-trans</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>H-Switch Cover All-transpair</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CPP All-trans</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CPP All-transpair</c:v>
+                  <c:v>SWPDC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>time!$M$3:$T$3</c:f>
+              <c:f>time!$N$26:$O$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>297.60000000000002</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>283</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>186.4</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7BF-6546-913C-574C61D0D034}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$M$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
                 </c:pt>
-                <c:pt idx="3">
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$N$25:$O$25</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>APEX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SWPDC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$N$27:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>258.05</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C7BF-6546-913C-574C61D0D034}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$M$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HSC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="70AD47"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$N$25:$O$25</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>APEX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SWPDC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$N$28:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3457</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>297.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>344.45</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C7BF-6546-913C-574C61D0D034}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$M$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPP</c:v>
                 </c:pt>
-                <c:pt idx="7">
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$N$25:$O$25</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>APEX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SWPDC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$N$29:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>279.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -848,7 +951,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-57F0-1548-87FC-CF465FA805E3}"/>
+              <c16:uniqueId val="{00000008-C7BF-6546-913C-574C61D0D034}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -893,12 +996,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -918,6 +1018,7 @@
       <c:valAx>
         <c:axId val="651871312"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -965,12 +1066,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -979,7 +1077,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>GENERATION TIME (MILISECONDS)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -997,12 +1095,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1029,12 +1124,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1064,6 +1156,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.56091184722599319"/>
+          <c:y val="2.0689655172413793E-2"/>
+          <c:w val="0.43756312788487645"/>
+          <c:h val="9.5707575346185181E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1077,12 +1179,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1104,10 +1203,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1118,7 +1214,604 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>All-transitions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25717425408030892"/>
+          <c:y val="2.0689655172413793E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$N$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>APEX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SWPDC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$N$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>297.60000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C6F-BC4C-9707-91E54AFAB1AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$N$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>APEX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SWPDC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$N$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C6F-BC4C-9707-91E54AFAB1AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="70AD47"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$N$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>APEX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SWPDC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$N$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>258.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C6F-BC4C-9707-91E54AFAB1AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$N$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>APEX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SWPDC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$N$6:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>344.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8C6F-BC4C-9707-91E54AFAB1AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="477787920"/>
+        <c:axId val="651871312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="477787920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651871312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="651871312"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>GENERATION TIME (MILISECONDS)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477787920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.56091184722599319"/>
+          <c:y val="2.0689655172413793E-2"/>
+          <c:w val="0.43756312788487645"/>
+          <c:h val="9.5707575346185181E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1171,6 +1864,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
@@ -1687,31 +2420,549 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C08D831-979F-EE45-BF2F-705BA601EFA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D03CA2-8870-8B4D-B74C-3529D47D0D9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1725,7 +2976,286 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B28321F5-267C-C349-8701-8F10C4CE909F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>BFS</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>4</v>
+          </cell>
+          <cell r="B4">
+            <v>8.0505050505050502</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>6</v>
+          </cell>
+          <cell r="B5">
+            <v>13.663265306122449</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>8</v>
+          </cell>
+          <cell r="B6">
+            <v>19.458333333333332</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>10</v>
+          </cell>
+          <cell r="B7">
+            <v>25.381443298969071</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>12</v>
+          </cell>
+          <cell r="B8">
+            <v>29.767676767676768</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>14</v>
+          </cell>
+          <cell r="B9">
+            <v>35.393939393939391</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>16</v>
+          </cell>
+          <cell r="B10">
+            <v>41.25</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>18</v>
+          </cell>
+          <cell r="B11">
+            <v>46.711340206185568</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>20</v>
+          </cell>
+          <cell r="B12">
+            <v>52.608247422680414</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>DFS</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>3.2424242424242422</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>5.2653061224489797</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>7.739583333333333</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>9.5567010309278349</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>11.424242424242424</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>13.979797979797979</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>16.29</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>18.164948453608247</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>20.24742268041237</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>HSC</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>CPP</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2309,12 +3839,298 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2337,7 +4153,7 @@
     <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2345,60 +4161,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2427,37 +4217,17 @@
       <c r="J2">
         <v>409</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>375</v>
-      </c>
-      <c r="N2">
-        <v>539</v>
-      </c>
-      <c r="O2">
-        <v>206</v>
-      </c>
-      <c r="P2">
-        <v>278</v>
-      </c>
-      <c r="Q2">
-        <v>1186</v>
-      </c>
-      <c r="R2">
-        <v>3457</v>
-      </c>
-      <c r="S2">
-        <v>380</v>
-      </c>
-      <c r="T2">
-        <v>409</v>
+      <c r="L2" s="1"/>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2486,557 +4256,562 @@
       <c r="J3">
         <v>331</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>375</v>
+      </c>
+      <c r="O3">
+        <f>SUM(C3:C22)/20</f>
+        <v>297.60000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>283</v>
+      </c>
+      <c r="D4">
+        <v>277</v>
+      </c>
+      <c r="E4">
+        <v>310</v>
+      </c>
+      <c r="F4">
+        <v>346</v>
+      </c>
+      <c r="G4">
+        <v>311</v>
+      </c>
+      <c r="H4">
+        <v>286</v>
+      </c>
+      <c r="I4">
+        <v>328</v>
+      </c>
+      <c r="J4">
+        <v>282</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>206</v>
+      </c>
+      <c r="O4">
+        <f>SUM(E3:E22)/20</f>
+        <v>186.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>121</v>
+      </c>
+      <c r="D5">
+        <v>274</v>
+      </c>
+      <c r="E5">
+        <v>78</v>
+      </c>
+      <c r="F5">
+        <v>329</v>
+      </c>
+      <c r="G5">
+        <v>242</v>
+      </c>
+      <c r="H5">
+        <v>648</v>
+      </c>
+      <c r="I5">
+        <v>399</v>
+      </c>
+      <c r="J5">
+        <v>264</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>1186</v>
+      </c>
+      <c r="O5">
+        <f>SUM(G3:G22)/20</f>
+        <v>258.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>302</v>
+      </c>
+      <c r="D6">
+        <v>494</v>
+      </c>
+      <c r="E6">
+        <v>344</v>
+      </c>
+      <c r="F6">
+        <v>269</v>
+      </c>
+      <c r="G6">
+        <v>330</v>
+      </c>
+      <c r="H6">
+        <v>242</v>
+      </c>
+      <c r="I6">
+        <v>380</v>
+      </c>
+      <c r="J6">
+        <v>286</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>380</v>
+      </c>
+      <c r="O6">
+        <f>SUM(I3:I22)/20</f>
+        <v>344.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>408</v>
+      </c>
+      <c r="D7">
+        <v>265</v>
+      </c>
+      <c r="E7">
+        <v>235</v>
+      </c>
+      <c r="F7">
+        <v>359</v>
+      </c>
+      <c r="G7">
+        <v>288</v>
+      </c>
+      <c r="H7">
+        <v>373</v>
+      </c>
+      <c r="I7">
+        <v>378</v>
+      </c>
+      <c r="J7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>129</v>
+      </c>
+      <c r="D8">
+        <v>372</v>
+      </c>
+      <c r="E8">
+        <v>135</v>
+      </c>
+      <c r="F8">
+        <v>252</v>
+      </c>
+      <c r="G8">
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <v>294</v>
+      </c>
+      <c r="I8">
+        <v>354</v>
+      </c>
+      <c r="J8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>253</v>
+      </c>
+      <c r="D9">
+        <v>339</v>
+      </c>
+      <c r="E9">
+        <v>185</v>
+      </c>
+      <c r="F9">
+        <v>272</v>
+      </c>
+      <c r="G9">
+        <v>231</v>
+      </c>
+      <c r="H9">
+        <v>255</v>
+      </c>
+      <c r="I9">
+        <v>251</v>
+      </c>
+      <c r="J9">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>284</v>
+      </c>
+      <c r="D10">
+        <v>270</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>338</v>
+      </c>
+      <c r="G10">
+        <v>271</v>
+      </c>
+      <c r="H10">
+        <v>336</v>
+      </c>
+      <c r="I10">
+        <v>345</v>
+      </c>
+      <c r="J10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>125</v>
+      </c>
+      <c r="D11">
+        <v>278</v>
+      </c>
+      <c r="E11">
+        <v>74</v>
+      </c>
+      <c r="F11">
+        <v>328</v>
+      </c>
+      <c r="G11">
+        <v>315</v>
+      </c>
+      <c r="H11">
+        <v>237</v>
+      </c>
+      <c r="I11">
+        <v>352</v>
+      </c>
+      <c r="J11">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>161</v>
+      </c>
+      <c r="D12">
+        <v>263</v>
+      </c>
+      <c r="E12">
+        <v>180</v>
+      </c>
+      <c r="F12">
+        <v>265</v>
+      </c>
+      <c r="G12">
+        <v>186</v>
+      </c>
+      <c r="H12">
+        <v>230</v>
+      </c>
+      <c r="I12">
+        <v>363</v>
+      </c>
+      <c r="J12">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>324</v>
+      </c>
+      <c r="D13">
+        <v>256</v>
+      </c>
+      <c r="E13">
+        <v>201</v>
+      </c>
+      <c r="F13">
+        <v>320</v>
+      </c>
+      <c r="G13">
+        <v>284</v>
+      </c>
+      <c r="H13">
+        <v>297</v>
+      </c>
+      <c r="I13">
+        <v>420</v>
+      </c>
+      <c r="J13">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>369</v>
+      </c>
+      <c r="D14">
+        <v>242</v>
+      </c>
+      <c r="E14">
+        <v>190</v>
+      </c>
+      <c r="F14">
+        <v>255</v>
+      </c>
+      <c r="G14">
+        <v>351</v>
+      </c>
+      <c r="H14">
+        <v>224</v>
+      </c>
+      <c r="I14">
+        <v>351</v>
+      </c>
+      <c r="J14">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>338</v>
+      </c>
+      <c r="D15">
+        <v>237</v>
+      </c>
+      <c r="E15">
+        <v>250</v>
+      </c>
+      <c r="F15">
+        <v>345</v>
+      </c>
+      <c r="G15">
+        <v>360</v>
+      </c>
+      <c r="H15">
+        <v>272</v>
+      </c>
+      <c r="I15">
+        <v>295</v>
+      </c>
+      <c r="J15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>232</v>
+      </c>
+      <c r="D16">
+        <v>282</v>
+      </c>
+      <c r="E16">
+        <v>323</v>
+      </c>
+      <c r="F16">
+        <v>318</v>
+      </c>
+      <c r="G16">
+        <v>311</v>
+      </c>
+      <c r="H16">
+        <v>267</v>
+      </c>
+      <c r="I16">
+        <v>304</v>
+      </c>
+      <c r="J16">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
         <v>11</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:T3" si="0">SUM(C3:C22)/20</f>
-        <v>297.60000000000002</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="0"/>
-        <v>283</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="0"/>
-        <v>186.4</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="0"/>
-        <v>318</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>258.05</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="0"/>
-        <v>297.8</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>344.45</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>279.25</v>
+      <c r="C17">
+        <v>205</v>
+      </c>
+      <c r="D17">
+        <v>226</v>
+      </c>
+      <c r="E17">
+        <v>189</v>
+      </c>
+      <c r="F17">
+        <v>298</v>
+      </c>
+      <c r="G17">
+        <v>227</v>
+      </c>
+      <c r="H17">
+        <v>379</v>
+      </c>
+      <c r="I17">
+        <v>311</v>
+      </c>
+      <c r="J17">
+        <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>129</v>
-      </c>
-      <c r="D4">
-        <v>372</v>
-      </c>
-      <c r="E4">
-        <v>135</v>
-      </c>
-      <c r="F4">
-        <v>252</v>
-      </c>
-      <c r="G4">
-        <v>80</v>
-      </c>
-      <c r="H4">
-        <v>294</v>
-      </c>
-      <c r="I4">
-        <v>354</v>
-      </c>
-      <c r="J4">
-        <v>338</v>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>281</v>
+      </c>
+      <c r="D18">
+        <v>236</v>
+      </c>
+      <c r="E18">
+        <v>215</v>
+      </c>
+      <c r="F18">
+        <v>334</v>
+      </c>
+      <c r="G18">
+        <v>261</v>
+      </c>
+      <c r="H18">
+        <v>366</v>
+      </c>
+      <c r="I18">
+        <v>363</v>
+      </c>
+      <c r="J18">
+        <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>205</v>
-      </c>
-      <c r="D5">
-        <v>226</v>
-      </c>
-      <c r="E5">
-        <v>189</v>
-      </c>
-      <c r="F5">
-        <v>298</v>
-      </c>
-      <c r="G5">
-        <v>227</v>
-      </c>
-      <c r="H5">
-        <v>379</v>
-      </c>
-      <c r="I5">
-        <v>311</v>
-      </c>
-      <c r="J5">
-        <v>197</v>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>153</v>
+      </c>
+      <c r="D19">
+        <v>347</v>
+      </c>
+      <c r="E19">
+        <v>113</v>
+      </c>
+      <c r="F19">
+        <v>284</v>
+      </c>
+      <c r="G19">
+        <v>122</v>
+      </c>
+      <c r="H19">
+        <v>281</v>
+      </c>
+      <c r="I19">
+        <v>308</v>
+      </c>
+      <c r="J19">
+        <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>253</v>
-      </c>
-      <c r="D6">
-        <v>339</v>
-      </c>
-      <c r="E6">
-        <v>185</v>
-      </c>
-      <c r="F6">
-        <v>272</v>
-      </c>
-      <c r="G6">
-        <v>231</v>
-      </c>
-      <c r="H6">
-        <v>255</v>
-      </c>
-      <c r="I6">
-        <v>251</v>
-      </c>
-      <c r="J6">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>284</v>
-      </c>
-      <c r="D7">
-        <v>270</v>
-      </c>
-      <c r="E7">
-        <v>75</v>
-      </c>
-      <c r="F7">
-        <v>338</v>
-      </c>
-      <c r="G7">
-        <v>271</v>
-      </c>
-      <c r="H7">
-        <v>336</v>
-      </c>
-      <c r="I7">
-        <v>345</v>
-      </c>
-      <c r="J7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>125</v>
-      </c>
-      <c r="D8">
-        <v>278</v>
-      </c>
-      <c r="E8">
-        <v>74</v>
-      </c>
-      <c r="F8">
-        <v>328</v>
-      </c>
-      <c r="G8">
-        <v>315</v>
-      </c>
-      <c r="H8">
-        <v>237</v>
-      </c>
-      <c r="I8">
-        <v>352</v>
-      </c>
-      <c r="J8">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>161</v>
-      </c>
-      <c r="D9">
-        <v>263</v>
-      </c>
-      <c r="E9">
-        <v>180</v>
-      </c>
-      <c r="F9">
-        <v>265</v>
-      </c>
-      <c r="G9">
-        <v>186</v>
-      </c>
-      <c r="H9">
-        <v>230</v>
-      </c>
-      <c r="I9">
-        <v>363</v>
-      </c>
-      <c r="J9">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>281</v>
-      </c>
-      <c r="D10">
-        <v>236</v>
-      </c>
-      <c r="E10">
-        <v>215</v>
-      </c>
-      <c r="F10">
-        <v>334</v>
-      </c>
-      <c r="G10">
-        <v>261</v>
-      </c>
-      <c r="H10">
-        <v>366</v>
-      </c>
-      <c r="I10">
-        <v>363</v>
-      </c>
-      <c r="J10">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>324</v>
-      </c>
-      <c r="D11">
-        <v>256</v>
-      </c>
-      <c r="E11">
-        <v>201</v>
-      </c>
-      <c r="F11">
-        <v>320</v>
-      </c>
-      <c r="G11">
-        <v>284</v>
-      </c>
-      <c r="H11">
-        <v>297</v>
-      </c>
-      <c r="I11">
-        <v>420</v>
-      </c>
-      <c r="J11">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>369</v>
-      </c>
-      <c r="D12">
-        <v>242</v>
-      </c>
-      <c r="E12">
-        <v>190</v>
-      </c>
-      <c r="F12">
-        <v>255</v>
-      </c>
-      <c r="G12">
-        <v>351</v>
-      </c>
-      <c r="H12">
-        <v>224</v>
-      </c>
-      <c r="I12">
-        <v>351</v>
-      </c>
-      <c r="J12">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>338</v>
-      </c>
-      <c r="D13">
-        <v>237</v>
-      </c>
-      <c r="E13">
-        <v>250</v>
-      </c>
-      <c r="F13">
-        <v>345</v>
-      </c>
-      <c r="G13">
-        <v>360</v>
-      </c>
-      <c r="H13">
-        <v>272</v>
-      </c>
-      <c r="I13">
-        <v>295</v>
-      </c>
-      <c r="J13">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>283</v>
-      </c>
-      <c r="D14">
-        <v>277</v>
-      </c>
-      <c r="E14">
-        <v>310</v>
-      </c>
-      <c r="F14">
-        <v>346</v>
-      </c>
-      <c r="G14">
-        <v>311</v>
-      </c>
-      <c r="H14">
-        <v>286</v>
-      </c>
-      <c r="I14">
-        <v>328</v>
-      </c>
-      <c r="J14">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>232</v>
-      </c>
-      <c r="D15">
-        <v>282</v>
-      </c>
-      <c r="E15">
-        <v>323</v>
-      </c>
-      <c r="F15">
-        <v>318</v>
-      </c>
-      <c r="G15">
-        <v>311</v>
-      </c>
-      <c r="H15">
-        <v>267</v>
-      </c>
-      <c r="I15">
-        <v>304</v>
-      </c>
-      <c r="J15">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>408</v>
-      </c>
-      <c r="D16">
-        <v>265</v>
-      </c>
-      <c r="E16">
-        <v>235</v>
-      </c>
-      <c r="F16">
-        <v>359</v>
-      </c>
-      <c r="G16">
-        <v>288</v>
-      </c>
-      <c r="H16">
-        <v>373</v>
-      </c>
-      <c r="I16">
-        <v>378</v>
-      </c>
-      <c r="J16">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>302</v>
-      </c>
-      <c r="D17">
-        <v>494</v>
-      </c>
-      <c r="E17">
-        <v>344</v>
-      </c>
-      <c r="F17">
-        <v>269</v>
-      </c>
-      <c r="G17">
-        <v>330</v>
-      </c>
-      <c r="H17">
-        <v>242</v>
-      </c>
-      <c r="I17">
-        <v>380</v>
-      </c>
-      <c r="J17">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C18">
-        <v>829</v>
-      </c>
-      <c r="D18">
-        <v>313</v>
-      </c>
-      <c r="E18">
-        <v>262</v>
-      </c>
-      <c r="F18">
-        <v>341</v>
-      </c>
-      <c r="G18">
-        <v>253</v>
-      </c>
-      <c r="H18">
-        <v>281</v>
-      </c>
-      <c r="I18">
-        <v>358</v>
-      </c>
-      <c r="J18">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>841</v>
-      </c>
-      <c r="D19">
-        <v>273</v>
-      </c>
-      <c r="E19">
-        <v>83</v>
-      </c>
-      <c r="F19">
-        <v>375</v>
-      </c>
-      <c r="G19">
-        <v>515</v>
-      </c>
-      <c r="H19">
-        <v>280</v>
-      </c>
-      <c r="I19">
-        <v>313</v>
-      </c>
-      <c r="J19">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -3066,68 +4841,127 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>153</v>
+        <v>841</v>
       </c>
       <c r="D21">
-        <v>347</v>
+        <v>273</v>
       </c>
       <c r="E21">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="F21">
-        <v>284</v>
+        <v>375</v>
       </c>
       <c r="G21">
-        <v>122</v>
+        <v>515</v>
       </c>
       <c r="H21">
+        <v>280</v>
+      </c>
+      <c r="I21">
+        <v>313</v>
+      </c>
+      <c r="J21">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>829</v>
+      </c>
+      <c r="D22">
+        <v>313</v>
+      </c>
+      <c r="E22">
+        <v>262</v>
+      </c>
+      <c r="F22">
+        <v>341</v>
+      </c>
+      <c r="G22">
+        <v>253</v>
+      </c>
+      <c r="H22">
         <v>281</v>
       </c>
-      <c r="I21">
-        <v>308</v>
-      </c>
-      <c r="J21">
-        <v>287</v>
+      <c r="I22">
+        <v>358</v>
+      </c>
+      <c r="J22">
+        <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>121</v>
-      </c>
-      <c r="D22">
-        <v>274</v>
-      </c>
-      <c r="E22">
-        <v>78</v>
-      </c>
-      <c r="F22">
-        <v>329</v>
-      </c>
-      <c r="G22">
-        <v>242</v>
-      </c>
-      <c r="H22">
-        <v>648</v>
-      </c>
-      <c r="I22">
-        <v>399</v>
-      </c>
-      <c r="J22">
-        <v>264</v>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L26" s="2"/>
+      <c r="M26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26">
+        <v>539</v>
+      </c>
+      <c r="O26">
+        <f>SUM(D3:D22)/20</f>
+        <v>283</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L27" s="1"/>
+      <c r="M27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27">
+        <v>278</v>
+      </c>
+      <c r="O27">
+        <f>SUM(F3:F22)/20</f>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28">
+        <v>3457</v>
+      </c>
+      <c r="O28">
+        <f>SUM(H3:H22)/20</f>
+        <v>297.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29">
+        <v>409</v>
+      </c>
+      <c r="O29">
+        <f>SUM(J3:J22)/20</f>
+        <v>279.25</v>
       </c>
     </row>
   </sheetData>
